--- a/CONG NO/CONG NO 2015/LONG AN/No Vay EIB.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/No Vay EIB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1530" windowWidth="8415" windowHeight="5640" activeTab="10"/>
+    <workbookView xWindow="4485" yWindow="1530" windowWidth="8415" windowHeight="5640" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="T01 15" sheetId="33" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="T09" sheetId="43" r:id="rId9"/>
     <sheet name="T10" sheetId="44" r:id="rId10"/>
     <sheet name="T11" sheetId="45" r:id="rId11"/>
+    <sheet name="12" sheetId="46" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T01 15'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'T02 15'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'T03 15'!$A$3:$S$24</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="96">
   <si>
     <t>Stt</t>
   </si>
@@ -322,6 +324,9 @@
   </si>
   <si>
     <t>1015LDS201502531</t>
+  </si>
+  <si>
+    <t>1015LDS201503102</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1046,7 @@
     <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1552,17 +1557,14 @@
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,6 +1580,18 @@
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2001,47 +2015,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -2087,8 +2101,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -2319,10 +2333,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -3109,10 +3123,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="176"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -3452,10 +3466,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="176" t="s">
+      <c r="A33" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="176"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -3530,11 +3544,6 @@
   </sheetData>
   <autoFilter ref="A3:S26"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A9:B9"/>
@@ -3542,6 +3551,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -3616,47 +3630,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -3702,8 +3716,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -3935,10 +3949,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4200,10 +4214,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -4751,10 +4765,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="176"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -5597,10 +5611,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="176"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -5717,11 +5731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD25"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -5779,47 +5793,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -5865,8 +5879,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -6098,10 +6112,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -6367,10 +6381,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -6927,10 +6941,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="176"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -7775,10 +7789,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="176"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -7869,6 +7883,2183 @@
   <autoFilter ref="A3:S27"/>
   <sortState ref="A10:T13">
     <sortCondition ref="C10:C13"/>
+  </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="6.75" style="13" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22">
+        <v>42357</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22">
+        <v>42354</v>
+      </c>
+      <c r="P1" s="22">
+        <v>42344</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>42356</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="177" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="177" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="176" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="176" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
+    </row>
+    <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="113">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="44">
+        <v>40200</v>
+      </c>
+      <c r="D4" s="44">
+        <v>42649</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
+        <v>13915</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="54">
+        <v>13915</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82">
+        <f>F4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115">
+        <f>IF((LEFT(B4,4)="1402"),E4*Q4*DATEDIF(P4,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="115">
+        <f>IF((LEFT(B4,4)="1015"),F4*R4*DATEDIF(Q4,$P$1,"d")/360,0)</f>
+        <v>52.181249999999999</v>
+      </c>
+      <c r="Q4" s="44">
+        <f>DATEVALUE("6/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42314</v>
+      </c>
+      <c r="R4" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S4" s="117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="53">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D5" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
+        <v>33319.39</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="28">
+        <v>33319.39</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23">
+        <f>F5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24">
+        <f>IF((LEFT(B5,4)="1402"),E5*Q5*DATEDIF(P5,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
+        <f>IF((LEFT(B5,4)="1015"),F5*R5*DATEDIF(Q5,$P$1,"d")/360,0)</f>
+        <v>124.94771249999998</v>
+      </c>
+      <c r="Q5" s="44">
+        <f t="shared" ref="Q5:Q7" si="0">DATEVALUE("6/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42314</v>
+      </c>
+      <c r="R5" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="53">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D6" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
+        <v>20515.96</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="28">
+        <v>20515.96</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23">
+        <f>F6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24">
+        <f>IF((LEFT(B6,4)="1402"),E6*Q6*DATEDIF(P6,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
+        <f>IF((LEFT(B6,4)="1015"),F6*R6*DATEDIF(Q6,$P$1,"d")/360,0)</f>
+        <v>76.934849999999997</v>
+      </c>
+      <c r="Q6" s="44">
+        <f t="shared" si="0"/>
+        <v>42314</v>
+      </c>
+      <c r="R6" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="53">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D7" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
+        <v>28719.379999999997</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="28">
+        <v>28719.379999999997</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
+        <f>F7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24">
+        <f>IF((LEFT(B7,4)="1402"),E7*Q7*DATEDIF(P7,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <f>IF((LEFT(B7,4)="1015"),F7*R7*DATEDIF(Q7,$P$1,"d")/360,0)</f>
+        <v>107.69767499999998</v>
+      </c>
+      <c r="Q7" s="44">
+        <f t="shared" si="0"/>
+        <v>42314</v>
+      </c>
+      <c r="R7" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66">
+        <f>SUM(F4:F8)</f>
+        <v>96469.73000000001</v>
+      </c>
+      <c r="G9" s="65">
+        <f>SUM(G4:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66">
+        <f>SUM(J4:J7)</f>
+        <v>96469.73000000001</v>
+      </c>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66">
+        <f>SUM(L4:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65">
+        <f>SUM(N4:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="65">
+        <f>SUM(O4:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="66">
+        <f>SUM(P4:P7)</f>
+        <v>361.76148749999993</v>
+      </c>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="68"/>
+    </row>
+    <row r="10" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="135">
+        <f>ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="148">
+        <v>42151</v>
+      </c>
+      <c r="D10" s="148">
+        <v>42335</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140">
+        <v>76300</v>
+      </c>
+      <c r="G10" s="149">
+        <v>2019360000</v>
+      </c>
+      <c r="H10" s="148"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140">
+        <f>F10-J10</f>
+        <v>76300</v>
+      </c>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140">
+        <f>IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(Q10,O$1,"d")/360,0)</f>
+        <v>254.33333333333334</v>
+      </c>
+      <c r="P10" s="140">
+        <f>IF((LEFT(B10,4)="1015"),F10*R10*DATEDIF(Q10,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42324</v>
+      </c>
+      <c r="R10" s="150">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="143"/>
+    </row>
+    <row r="11" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="135">
+        <f>ROW()-9</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="137">
+        <v>42158</v>
+      </c>
+      <c r="D11" s="137">
+        <v>42341</v>
+      </c>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138">
+        <v>95000</v>
+      </c>
+      <c r="G11" s="139">
+        <v>1737190000</v>
+      </c>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140">
+        <f>F11-J11</f>
+        <v>95000</v>
+      </c>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138">
+        <f>IF((LEFT(B11,4)="1402"),F11*R11*DATEDIF(Q11,O$1,"d")/360,0)</f>
+        <v>316.66666666666669</v>
+      </c>
+      <c r="P11" s="138">
+        <f>IF((LEFT(B11,4)="1015"),F11*R11*DATEDIF(Q11,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42324</v>
+      </c>
+      <c r="R11" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S11" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="33"/>
+    </row>
+    <row r="12" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="135">
+        <f>ROW()-9</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="137">
+        <v>42181</v>
+      </c>
+      <c r="D12" s="137">
+        <v>42364</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>43600</v>
+      </c>
+      <c r="G12" s="139">
+        <v>926064000</v>
+      </c>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140">
+        <f>F12-J12</f>
+        <v>43600</v>
+      </c>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138">
+        <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
+        <v>145.33333333333334</v>
+      </c>
+      <c r="P12" s="138">
+        <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42324</v>
+      </c>
+      <c r="R12" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S12" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="41"/>
+    </row>
+    <row r="13" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="135">
+        <f>ROW()-9</f>
+        <v>4</v>
+      </c>
+      <c r="B13" s="147" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="137">
+        <v>42234</v>
+      </c>
+      <c r="D13" s="137">
+        <v>42418</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
+        <v>52300</v>
+      </c>
+      <c r="G13" s="139">
+        <v>1151700000</v>
+      </c>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140">
+        <f>F13-J13</f>
+        <v>52300</v>
+      </c>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138">
+        <f>IF((LEFT(B13,4)="1402"),F13*R13*DATEDIF(Q13,O$1,"d")/360,0)</f>
+        <v>174.33333333333334</v>
+      </c>
+      <c r="P13" s="138">
+        <f>IF((LEFT(B13,4)="1015"),F13*R13*DATEDIF(Q13,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42324</v>
+      </c>
+      <c r="R13" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S13" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="33"/>
+    </row>
+    <row r="14" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="152"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="159"/>
+    </row>
+    <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="185"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66">
+        <f>SUM(F10:F14)</f>
+        <v>267200</v>
+      </c>
+      <c r="G15" s="65">
+        <f>SUM(G9:G12)</f>
+        <v>4682614000</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66">
+        <f>SUM(J10:J14)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66">
+        <f>SUM(L10:L14)</f>
+        <v>267200</v>
+      </c>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65">
+        <f>SUM(N9:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="66">
+        <f>SUM(O10:O14)</f>
+        <v>890.66666666666674</v>
+      </c>
+      <c r="P15" s="66">
+        <f>SUM(P10:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+    </row>
+    <row r="16" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="83">
+        <f>ROW()-15</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="30">
+        <v>42156</v>
+      </c>
+      <c r="D16" s="30">
+        <v>42339</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
+        <v>89500</v>
+      </c>
+      <c r="G16" s="92"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="81">
+        <f>F16-J16</f>
+        <v>89500</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23">
+        <f>IF((LEFT(B16,4)="1402"),F16*R16*DATEDIF(Q16,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <f>IF((LEFT(B16,4)="1015"),F16*R16*DATEDIF(Q16,Q$1,"d")/360,0)</f>
+        <v>298.33333333333331</v>
+      </c>
+      <c r="Q16" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S16" s="37"/>
+      <c r="T16" s="41"/>
+    </row>
+    <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="83">
+        <f>ROW()-15</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="30">
+        <v>42180</v>
+      </c>
+      <c r="D17" s="30">
+        <v>42363</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
+        <v>70000</v>
+      </c>
+      <c r="G17" s="97">
+        <v>2015900000</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="81">
+        <f>F17-J17</f>
+        <v>70000</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="23">
+        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="Q17" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" s="143"/>
+    </row>
+    <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="83">
+        <f>ROW()-15</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="30">
+        <v>42184</v>
+      </c>
+      <c r="D18" s="30">
+        <v>42367</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <v>21000</v>
+      </c>
+      <c r="G18" s="97">
+        <v>2015900000</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81">
+        <f>F18-J18</f>
+        <v>21000</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="23">
+        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
+        <v>70</v>
+      </c>
+      <c r="Q18" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="83">
+        <f>ROW()-15</f>
+        <v>4</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="30">
+        <v>42205</v>
+      </c>
+      <c r="D19" s="30">
+        <v>42389</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26">
+        <v>97000</v>
+      </c>
+      <c r="G19" s="97">
+        <v>1965255000</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81">
+        <f>F19-J19</f>
+        <v>97000</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="23">
+        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
+        <v>323.33333333333331</v>
+      </c>
+      <c r="Q19" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="83">
+        <f>ROW()-15</f>
+        <v>5</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="30">
+        <v>42247</v>
+      </c>
+      <c r="D20" s="30">
+        <v>42429</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <v>82000</v>
+      </c>
+      <c r="G20" s="92">
+        <v>1894165000</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81">
+        <f>F20-J20</f>
+        <v>82000</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>273.33333333333331</v>
+      </c>
+      <c r="Q20" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="33"/>
+    </row>
+    <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="83">
+        <f>ROW()-15</f>
+        <v>6</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="30">
+        <v>42250</v>
+      </c>
+      <c r="D21" s="30">
+        <v>42432</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="92">
+        <v>1997238540</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81">
+        <f>F21-J21</f>
+        <v>40000</v>
+      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23">
+        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="Q21" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="83">
+        <f>ROW()-15</f>
+        <v>7</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="30">
+        <v>42251</v>
+      </c>
+      <c r="D22" s="30">
+        <v>42433</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="92">
+        <v>1997238540</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81">
+        <f>F22-J22</f>
+        <v>50000</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23">
+        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="Q22" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42326</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" s="33"/>
+    </row>
+    <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="83">
+        <f>ROW()-15</f>
+        <v>8</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="30">
+        <v>42278</v>
+      </c>
+      <c r="D23" s="30">
+        <v>42552</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>89500</v>
+      </c>
+      <c r="G23" s="92">
+        <v>1894165000</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="81">
+        <f>F23-J23</f>
+        <v>89500</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23">
+        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
+        <v>775.66666666666663</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>42278</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="143"/>
+    </row>
+    <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="83">
+        <f>ROW()-15</f>
+        <v>9</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="30">
+        <v>42279</v>
+      </c>
+      <c r="D24" s="30">
+        <v>42553</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23">
+        <v>89000</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="81">
+        <f>F24-J24</f>
+        <v>89000</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23">
+        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
+        <v>761.44444444444446</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>42279</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S24" s="37"/>
+      <c r="T24" s="41"/>
+    </row>
+    <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="83">
+        <f>ROW()-15</f>
+        <v>10</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="88">
+        <v>42328</v>
+      </c>
+      <c r="D25" s="30">
+        <v>42602</v>
+      </c>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89">
+        <v>61000</v>
+      </c>
+      <c r="G25" s="91"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="81">
+        <f>F25-J25</f>
+        <v>61000</v>
+      </c>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="23">
+        <f>IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(Q25,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <f>IF((LEFT(B25,4)="1015"),F25*R25*DATEDIF(Q25,Q$1,"d")/360,0)</f>
+        <v>189.77777777777777</v>
+      </c>
+      <c r="Q25" s="44">
+        <v>42328</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S25" s="37"/>
+      <c r="T25" s="41"/>
+    </row>
+    <row r="26" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="107"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="110"/>
+    </row>
+    <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="184"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="66">
+        <f>SUM(E10:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <f>SUM(F16:F26)</f>
+        <v>689000</v>
+      </c>
+      <c r="G27" s="65">
+        <f>SUM(G10:G24)</f>
+        <v>24296790080</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="66">
+        <f>SUM(I16:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="66">
+        <f>SUM(J16:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="66">
+        <f>SUM(K16:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="66">
+        <f>SUM(L16:L26)</f>
+        <v>689000</v>
+      </c>
+      <c r="M27" s="66">
+        <f>SUM(M10:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66">
+        <f>SUM(O16:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="66">
+        <f>SUM(P16:P26)</f>
+        <v>3225.2222222222222</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="68"/>
+    </row>
+    <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="83">
+        <f t="shared" ref="A28:A41" si="1">ROW()-25</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="31">
+        <v>41870</v>
+      </c>
+      <c r="D28" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1000000000</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29">
+        <v>1151700000</v>
+      </c>
+      <c r="H28" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I28" s="29">
+        <v>8340000</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29">
+        <f t="shared" ref="K28:K41" si="2">E28-I28</f>
+        <v>991660000</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29">
+        <f t="shared" ref="M28:M41" si="3">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28">
+        <f t="shared" ref="O28:O41" si="4">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" ref="P28:P41" si="5">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42327</v>
+      </c>
+      <c r="R28" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S28" s="98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="83">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="31">
+        <v>41905</v>
+      </c>
+      <c r="D29" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2000000000</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29">
+        <v>1894165000</v>
+      </c>
+      <c r="H29" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I29" s="29">
+        <v>16670000</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29">
+        <f t="shared" si="2"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29">
+        <f t="shared" si="3"/>
+        <v>15833333.333333334</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="63">
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42327</v>
+      </c>
+      <c r="R29" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S29" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="83">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="101">
+        <v>41934</v>
+      </c>
+      <c r="D30" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="102">
+        <v>1600000000</v>
+      </c>
+      <c r="F30" s="103"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I30" s="102">
+        <v>13340000</v>
+      </c>
+      <c r="J30" s="103"/>
+      <c r="K30" s="29">
+        <f t="shared" si="2"/>
+        <v>1586660000</v>
+      </c>
+      <c r="L30" s="103"/>
+      <c r="M30" s="29">
+        <f t="shared" si="3"/>
+        <v>12666666.666666666</v>
+      </c>
+      <c r="N30" s="103"/>
+      <c r="O30" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42327</v>
+      </c>
+      <c r="R30" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S30" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="83">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="101">
+        <v>41963</v>
+      </c>
+      <c r="D31" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F31" s="103"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I31" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="103"/>
+      <c r="K31" s="29">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L31" s="103"/>
+      <c r="M31" s="29">
+        <f t="shared" si="3"/>
+        <v>11875000</v>
+      </c>
+      <c r="N31" s="103"/>
+      <c r="O31" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="63">
+        <f t="shared" ref="Q31:Q41" si="6">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42327</v>
+      </c>
+      <c r="R31" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S31" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="83">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="101">
+        <v>41984</v>
+      </c>
+      <c r="D32" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F32" s="103"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I32" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="103"/>
+      <c r="K32" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L32" s="103"/>
+      <c r="M32" s="29">
+        <f t="shared" si="3"/>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N32" s="103"/>
+      <c r="O32" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R32" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S32" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="83">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="101">
+        <v>42033</v>
+      </c>
+      <c r="D33" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F33" s="103"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I33" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J33" s="103"/>
+      <c r="K33" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L33" s="103"/>
+      <c r="M33" s="29">
+        <f t="shared" si="3"/>
+        <v>11875000</v>
+      </c>
+      <c r="N33" s="103"/>
+      <c r="O33" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R33" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S33" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="83">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="101">
+        <v>42088</v>
+      </c>
+      <c r="D34" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="102">
+        <v>2000000000</v>
+      </c>
+      <c r="F34" s="103"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I34" s="102">
+        <v>16670000</v>
+      </c>
+      <c r="J34" s="103"/>
+      <c r="K34" s="102">
+        <f t="shared" si="2"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L34" s="103"/>
+      <c r="M34" s="29">
+        <f t="shared" si="3"/>
+        <v>15833333.333333334</v>
+      </c>
+      <c r="N34" s="103"/>
+      <c r="O34" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R34" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="83">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="101">
+        <v>42114</v>
+      </c>
+      <c r="D35" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="102">
+        <v>1400000000</v>
+      </c>
+      <c r="F35" s="103"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I35" s="102">
+        <v>11670000</v>
+      </c>
+      <c r="J35" s="103"/>
+      <c r="K35" s="102">
+        <f t="shared" si="2"/>
+        <v>1388330000</v>
+      </c>
+      <c r="L35" s="103"/>
+      <c r="M35" s="29">
+        <f t="shared" si="3"/>
+        <v>11083333.333333334</v>
+      </c>
+      <c r="N35" s="103"/>
+      <c r="O35" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R35" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S35" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="83">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="101">
+        <v>42138</v>
+      </c>
+      <c r="D36" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E36" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F36" s="103"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I36" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J36" s="103"/>
+      <c r="K36" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L36" s="103"/>
+      <c r="M36" s="29">
+        <f t="shared" si="3"/>
+        <v>11875000</v>
+      </c>
+      <c r="N36" s="103"/>
+      <c r="O36" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R36" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S36" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="83">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="101">
+        <v>42164</v>
+      </c>
+      <c r="D37" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E37" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F37" s="103"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I37" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J37" s="103"/>
+      <c r="K37" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L37" s="103"/>
+      <c r="M37" s="29">
+        <f t="shared" si="3"/>
+        <v>11875000</v>
+      </c>
+      <c r="N37" s="103"/>
+      <c r="O37" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R37" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S37" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="83">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="101">
+        <v>42187</v>
+      </c>
+      <c r="D38" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E38" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F38" s="103"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I38" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J38" s="103"/>
+      <c r="K38" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L38" s="103"/>
+      <c r="M38" s="29">
+        <f t="shared" si="3"/>
+        <v>11875000</v>
+      </c>
+      <c r="N38" s="103"/>
+      <c r="O38" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R38" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S38" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="83">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="101">
+        <v>42195</v>
+      </c>
+      <c r="D39" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E39" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F39" s="103"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I39" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J39" s="103"/>
+      <c r="K39" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L39" s="103"/>
+      <c r="M39" s="29">
+        <f t="shared" si="3"/>
+        <v>11875000</v>
+      </c>
+      <c r="N39" s="103"/>
+      <c r="O39" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R39" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S39" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="83">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="101">
+        <v>42215</v>
+      </c>
+      <c r="D40" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E40" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F40" s="103"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I40" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J40" s="103"/>
+      <c r="K40" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L40" s="103"/>
+      <c r="M40" s="29">
+        <f t="shared" si="3"/>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N40" s="103"/>
+      <c r="O40" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R40" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S40" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A41" s="83">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="101">
+        <v>42229</v>
+      </c>
+      <c r="D41" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E41" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F41" s="103"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I41" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J41" s="103"/>
+      <c r="K41" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L41" s="103"/>
+      <c r="M41" s="29">
+        <f t="shared" si="3"/>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N41" s="103"/>
+      <c r="O41" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R41" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S41" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="55"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="37"/>
+    </row>
+    <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="184"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="65">
+        <f>SUM(E28:E42)</f>
+        <v>20000000000</v>
+      </c>
+      <c r="F43" s="66">
+        <f>SUM(F28:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="65">
+        <f>SUM(G28:G42)</f>
+        <v>3045865000</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="65">
+        <f t="shared" ref="I43:P43" si="7">SUM(I28:I42)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J43" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="65">
+        <f t="shared" si="7"/>
+        <v>19833320000</v>
+      </c>
+      <c r="L43" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="65">
+        <f t="shared" si="7"/>
+        <v>158333333.33333331</v>
+      </c>
+      <c r="N43" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="68"/>
+    </row>
+    <row r="44" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="57" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S27"/>
+  <sortState ref="A16:T26">
+    <sortCondition ref="C16:C26"/>
   </sortState>
   <mergeCells count="13">
     <mergeCell ref="A43:B43"/>
@@ -7961,47 +10152,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -8047,8 +10238,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -8279,10 +10470,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -9010,10 +11201,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="176"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -9353,10 +11544,10 @@
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="176"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="69"/>
       <c r="D32" s="69"/>
       <c r="E32" s="65">
@@ -9431,6 +11622,11 @@
   </sheetData>
   <autoFilter ref="A3:S25"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -9438,11 +11634,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -9517,47 +11708,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -9603,8 +11794,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -9835,10 +12026,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -10521,10 +12712,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="176"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -10968,10 +13159,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="176" t="s">
+      <c r="A33" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="176"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -11046,11 +13237,6 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
@@ -11058,6 +13244,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -11132,47 +13323,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -11218,8 +13409,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -11450,10 +13641,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -12138,10 +14329,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="176"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -12587,10 +14778,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="176" t="s">
+      <c r="A33" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="176"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -12665,18 +14856,18 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -12751,47 +14942,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -12837,8 +15028,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -13069,10 +15260,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -13759,10 +15950,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="176"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -14308,10 +16499,10 @@
       <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="176"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="65">
@@ -14386,6 +16577,11 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -14393,11 +16589,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.18" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -14472,47 +16663,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -14558,8 +16749,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -14794,10 +16985,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -15053,10 +17244,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -15506,10 +17697,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="176"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -16128,10 +18319,10 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="176"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="65">
@@ -16225,11 +18416,6 @@
     <sortCondition ref="C10:C13"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -16238,6 +18424,11 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -16311,47 +18502,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -16397,8 +18588,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -16633,10 +18824,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -16899,10 +19090,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -17359,10 +19550,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="176"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -18037,10 +20228,10 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="176"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="65">
@@ -18220,47 +20411,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -18306,8 +20497,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -18542,10 +20733,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -18810,10 +21001,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -19270,10 +21461,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="176"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -20108,10 +22299,10 @@
       <c r="S40" s="37"/>
     </row>
     <row r="41" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="176"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="65">
@@ -20291,47 +22482,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="183" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="183"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="179" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="180" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -20377,8 +22568,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="179"/>
-      <c r="S3" s="180"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -20610,10 +22801,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="177"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -20875,10 +23066,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -21378,10 +23569,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="176"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -22224,10 +24415,10 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="176" t="s">
+      <c r="A42" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="176"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="65">

--- a/CONG NO/CONG NO 2015/LONG AN/No Vay EIB.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/No Vay EIB.xlsx
@@ -1566,6 +1566,18 @@
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,18 +1592,6 @@
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2015,47 +2015,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -2101,8 +2101,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -2333,10 +2333,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -3123,10 +3123,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="184"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -3466,10 +3466,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -3544,6 +3544,11 @@
   </sheetData>
   <autoFilter ref="A3:S26"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A9:B9"/>
@@ -3551,11 +3556,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -3630,47 +3630,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -3716,8 +3716,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -3949,10 +3949,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4214,10 +4214,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -4765,10 +4765,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -5611,10 +5611,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="184" t="s">
+      <c r="A43" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="184"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -5793,47 +5793,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -5879,8 +5879,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -6112,10 +6112,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -6381,10 +6381,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -6941,10 +6941,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -7789,10 +7789,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="184" t="s">
+      <c r="A43" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="184"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -7913,7 +7913,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -7971,47 +7971,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -8057,8 +8057,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -8290,10 +8290,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -8559,10 +8559,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="16" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" ref="A16:A25" si="1">ROW()-15</f>
         <v>1</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -8626,21 +8626,21 @@
       <c r="J16" s="23"/>
       <c r="K16" s="85"/>
       <c r="L16" s="81">
-        <f>F16-J16</f>
+        <f t="shared" ref="L16:L25" si="2">F16-J16</f>
         <v>89500</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23">
-        <f>IF((LEFT(B16,4)="1402"),F16*R16*DATEDIF(Q16,O$1,"d")/360,0)</f>
+        <f t="shared" ref="O16:O25" si="3">IF((LEFT(B16,4)="1402"),F16*R16*DATEDIF(Q16,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P16" s="26">
-        <f>IF((LEFT(B16,4)="1015"),F16*R16*DATEDIF(Q16,Q$1,"d")/360,0)</f>
+        <f t="shared" ref="P16:P25" si="4">IF((LEFT(B16,4)="1015"),F16*R16*DATEDIF(Q16,Q$1,"d")/360,0)</f>
         <v>298.33333333333331</v>
       </c>
       <c r="Q16" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" ref="Q16:Q22" si="5">DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R16" s="46">
@@ -8651,7 +8651,7 @@
     </row>
     <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -8675,21 +8675,21 @@
       <c r="J17" s="26"/>
       <c r="K17" s="85"/>
       <c r="L17" s="81">
-        <f>F17-J17</f>
+        <f t="shared" si="2"/>
         <v>70000</v>
       </c>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="23">
-        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P17" s="26">
-        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>233.33333333333334</v>
       </c>
       <c r="Q17" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="R17" s="46">
@@ -8702,7 +8702,7 @@
     </row>
     <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -8726,21 +8726,21 @@
       <c r="J18" s="26"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81">
-        <f>F18-J18</f>
+        <f t="shared" si="2"/>
         <v>21000</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="23">
-        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18" s="26">
-        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="Q18" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="R18" s="46">
@@ -8752,7 +8752,7 @@
     </row>
     <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -8776,21 +8776,21 @@
       <c r="J19" s="26"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81">
-        <f>F19-J19</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="23">
-        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="26">
-        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>323.33333333333331</v>
       </c>
       <c r="Q19" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="R19" s="46">
@@ -8803,7 +8803,7 @@
     </row>
     <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -8827,21 +8827,21 @@
       <c r="J20" s="23"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81">
-        <f>F20-J20</f>
+        <f t="shared" si="2"/>
         <v>82000</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23">
-        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="26">
-        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>273.33333333333331</v>
       </c>
       <c r="Q20" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="R20" s="46">
@@ -8854,7 +8854,7 @@
     </row>
     <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B21" s="50" t="s">
@@ -8878,21 +8878,21 @@
       <c r="J21" s="23"/>
       <c r="K21" s="81"/>
       <c r="L21" s="81">
-        <f>F21-J21</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23">
-        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P21" s="26">
-        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>133.33333333333334</v>
       </c>
       <c r="Q21" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="R21" s="46">
@@ -8905,7 +8905,7 @@
     </row>
     <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -8929,21 +8929,21 @@
       <c r="J22" s="23"/>
       <c r="K22" s="81"/>
       <c r="L22" s="81">
-        <f>F22-J22</f>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23">
-        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>166.66666666666666</v>
       </c>
       <c r="Q22" s="44">
-        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="R22" s="46">
@@ -8956,7 +8956,7 @@
     </row>
     <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -8980,17 +8980,17 @@
       <c r="J23" s="23"/>
       <c r="K23" s="85"/>
       <c r="L23" s="81">
-        <f>F23-J23</f>
+        <f t="shared" si="2"/>
         <v>89500</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23">
-        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>775.66666666666663</v>
       </c>
       <c r="Q23" s="44">
@@ -9006,7 +9006,7 @@
     </row>
     <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B24" s="49" t="s">
@@ -9028,17 +9028,17 @@
       <c r="J24" s="23"/>
       <c r="K24" s="85"/>
       <c r="L24" s="81">
-        <f>F24-J24</f>
+        <f t="shared" si="2"/>
         <v>89000</v>
       </c>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23">
-        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="26">
-        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>761.44444444444446</v>
       </c>
       <c r="Q24" s="44">
@@ -9052,7 +9052,7 @@
     </row>
     <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B25" s="49" t="s">
@@ -9074,17 +9074,17 @@
       <c r="J25" s="89"/>
       <c r="K25" s="85"/>
       <c r="L25" s="81">
-        <f>F25-J25</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
       <c r="M25" s="89"/>
       <c r="N25" s="89"/>
       <c r="O25" s="23">
-        <f>IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(Q25,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f>IF((LEFT(B25,4)="1015"),F25*R25*DATEDIF(Q25,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>189.77777777777777</v>
       </c>
       <c r="Q25" s="44">
@@ -9118,10 +9118,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -9172,7 +9172,7 @@
     </row>
     <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="83">
-        <f t="shared" ref="A28:A41" si="1">ROW()-25</f>
+        <f t="shared" ref="A28:A41" si="6">ROW()-25</f>
         <v>3</v>
       </c>
       <c r="B28" s="52" t="s">
@@ -9199,21 +9199,21 @@
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29">
-        <f t="shared" ref="K28:K41" si="2">E28-I28</f>
+        <f t="shared" ref="K28:K41" si="7">E28-I28</f>
         <v>991660000</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29">
-        <f t="shared" ref="M28:M41" si="3">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
+        <f t="shared" ref="M28:M41" si="8">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
         <v>7916666.666666667</v>
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="28">
-        <f t="shared" ref="O28:O41" si="4">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
+        <f t="shared" ref="O28:O41" si="9">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="27">
-        <f t="shared" ref="P28:P41" si="5">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
+        <f t="shared" ref="P28:P41" si="10">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="63">
@@ -9229,7 +9229,7 @@
     </row>
     <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -9256,21 +9256,21 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1983330000</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15833333.333333334</v>
       </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
@@ -9286,7 +9286,7 @@
     </row>
     <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B30" s="52" t="s">
@@ -9311,21 +9311,21 @@
       </c>
       <c r="J30" s="103"/>
       <c r="K30" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1586660000</v>
       </c>
       <c r="L30" s="103"/>
       <c r="M30" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12666666.666666666</v>
       </c>
       <c r="N30" s="103"/>
       <c r="O30" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P30" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q30" s="63">
@@ -9341,7 +9341,7 @@
     </row>
     <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -9366,25 +9366,25 @@
       </c>
       <c r="J31" s="103"/>
       <c r="K31" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L31" s="103"/>
       <c r="M31" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11875000</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P31" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f t="shared" ref="Q31:Q41" si="6">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f t="shared" ref="Q31:Q41" si="11">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42327</v>
       </c>
       <c r="R31" s="47">
@@ -9396,7 +9396,7 @@
     </row>
     <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -9421,25 +9421,25 @@
       </c>
       <c r="J32" s="103"/>
       <c r="K32" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>991670000</v>
       </c>
       <c r="L32" s="103"/>
       <c r="M32" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7916666.666666667</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P32" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q32" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R32" s="47">
@@ -9451,7 +9451,7 @@
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -9476,25 +9476,25 @@
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L33" s="103"/>
       <c r="M33" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11875000</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P33" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q33" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R33" s="47">
@@ -9506,7 +9506,7 @@
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B34" s="52" t="s">
@@ -9531,25 +9531,25 @@
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1983330000</v>
       </c>
       <c r="L34" s="103"/>
       <c r="M34" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15833333.333333334</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P34" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q34" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R34" s="47">
@@ -9561,7 +9561,7 @@
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B35" s="52" t="s">
@@ -9586,25 +9586,25 @@
       </c>
       <c r="J35" s="103"/>
       <c r="K35" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1388330000</v>
       </c>
       <c r="L35" s="103"/>
       <c r="M35" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11083333.333333334</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P35" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q35" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R35" s="47">
@@ -9616,7 +9616,7 @@
     </row>
     <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -9641,25 +9641,25 @@
       </c>
       <c r="J36" s="103"/>
       <c r="K36" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L36" s="103"/>
       <c r="M36" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11875000</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P36" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q36" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R36" s="47">
@@ -9671,7 +9671,7 @@
     </row>
     <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -9696,25 +9696,25 @@
       </c>
       <c r="J37" s="103"/>
       <c r="K37" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L37" s="103"/>
       <c r="M37" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11875000</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q37" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R37" s="47">
@@ -9726,7 +9726,7 @@
     </row>
     <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B38" s="52" t="s">
@@ -9751,25 +9751,25 @@
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L38" s="103"/>
       <c r="M38" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11875000</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P38" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q38" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R38" s="47">
@@ -9781,7 +9781,7 @@
     </row>
     <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -9806,25 +9806,25 @@
       </c>
       <c r="J39" s="103"/>
       <c r="K39" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L39" s="103"/>
       <c r="M39" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11875000</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P39" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q39" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R39" s="47">
@@ -9836,7 +9836,7 @@
     </row>
     <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B40" s="52" t="s">
@@ -9861,25 +9861,25 @@
       </c>
       <c r="J40" s="103"/>
       <c r="K40" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>991670000</v>
       </c>
       <c r="L40" s="103"/>
       <c r="M40" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7916666.666666667</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q40" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R40" s="47">
@@ -9891,7 +9891,7 @@
     </row>
     <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -9916,25 +9916,25 @@
       </c>
       <c r="J41" s="103"/>
       <c r="K41" s="102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>991670000</v>
       </c>
       <c r="L41" s="103"/>
       <c r="M41" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7916666.666666667</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P41" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q41" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>42327</v>
       </c>
       <c r="R41" s="47">
@@ -9966,10 +9966,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="184" t="s">
+      <c r="A43" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="184"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -9986,35 +9986,35 @@
       </c>
       <c r="H43" s="66"/>
       <c r="I43" s="65">
-        <f t="shared" ref="I43:P43" si="7">SUM(I28:I42)</f>
+        <f t="shared" ref="I43:P43" si="12">SUM(I28:I42)</f>
         <v>166680000</v>
       </c>
       <c r="J43" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K43" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>19833320000</v>
       </c>
       <c r="L43" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M43" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>158333333.33333331</v>
       </c>
       <c r="N43" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O43" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P43" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q43" s="70"/>
@@ -10152,47 +10152,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -10238,8 +10238,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -10470,10 +10470,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -11201,10 +11201,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="184"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -11544,10 +11544,10 @@
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="184"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="69"/>
       <c r="D32" s="69"/>
       <c r="E32" s="65">
@@ -11622,11 +11622,6 @@
   </sheetData>
   <autoFilter ref="A3:S25"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -11634,6 +11629,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -11708,47 +11708,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -11794,8 +11794,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -12026,10 +12026,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -12712,10 +12712,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="184"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -13159,10 +13159,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -13237,6 +13237,11 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
@@ -13244,11 +13249,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -13323,47 +13323,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -13409,8 +13409,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -13641,10 +13641,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -14329,10 +14329,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="184"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -14778,10 +14778,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -14856,18 +14856,18 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -14942,47 +14942,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -15028,8 +15028,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -15260,10 +15260,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -15950,10 +15950,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="184"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -16499,10 +16499,10 @@
       <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="184"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="65">
@@ -16577,11 +16577,6 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -16589,6 +16584,11 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.18" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -16663,47 +16663,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -16749,8 +16749,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -16985,10 +16985,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -17244,10 +17244,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -17697,10 +17697,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="184"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -18319,10 +18319,10 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="65">
@@ -18416,6 +18416,11 @@
     <sortCondition ref="C10:C13"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -18424,11 +18429,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18502,47 +18502,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -18588,8 +18588,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -18824,10 +18824,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -19090,10 +19090,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -19550,10 +19550,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="184"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -20228,10 +20228,10 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="184"/>
+      <c r="B38" s="179"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="65">
@@ -20411,47 +20411,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -20497,8 +20497,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -20733,10 +20733,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -21001,10 +21001,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -21461,10 +21461,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="184"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -22299,10 +22299,10 @@
       <c r="S40" s="37"/>
     </row>
     <row r="41" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="184"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="65">
@@ -22482,47 +22482,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="183" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="180" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="187" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="179" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -22568,8 +22568,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="179"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -22801,10 +22801,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="185"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -23066,10 +23066,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -23569,10 +23569,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="184"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -24415,10 +24415,10 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="184"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="65">

--- a/CONG NO/CONG NO 2015/LONG AN/No Vay EIB.xlsx
+++ b/CONG NO/CONG NO 2015/LONG AN/No Vay EIB.xlsx
@@ -21,7 +21,7 @@
     <sheet name="12" sheetId="46" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T01 15'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'T02 15'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'T03 15'!$A$3:$S$24</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="100">
   <si>
     <t>Stt</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>1015LDS201503102</t>
+  </si>
+  <si>
+    <t>1402LDS201503829</t>
+  </si>
+  <si>
+    <t>1402LDS201501740</t>
+  </si>
+  <si>
+    <t>1402LDS2015</t>
+  </si>
+  <si>
+    <t>1015LDS201503206</t>
   </si>
 </sst>
 </file>
@@ -1566,18 +1578,6 @@
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1592,6 +1592,18 @@
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2015,47 +2027,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -2101,8 +2113,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -2333,10 +2345,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -3123,10 +3135,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="179"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -3466,10 +3478,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="179"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -3544,11 +3556,6 @@
   </sheetData>
   <autoFilter ref="A3:S26"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A9:B9"/>
@@ -3556,6 +3563,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -3630,47 +3642,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -3716,8 +3728,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -3949,10 +3961,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4214,10 +4226,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -4765,10 +4777,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="179"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -5611,10 +5623,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="179"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -5793,47 +5805,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -5879,8 +5891,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -6112,10 +6124,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -6381,10 +6393,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -6941,10 +6953,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="179"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -7789,10 +7801,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="179"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -7907,13 +7919,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -7971,47 +7983,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -8057,8 +8069,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -8290,10 +8302,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -8339,20 +8351,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="147" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C10" s="148">
-        <v>42151</v>
+        <v>42181</v>
       </c>
       <c r="D10" s="148">
-        <v>42335</v>
+        <v>42364</v>
       </c>
       <c r="E10" s="140"/>
       <c r="F10" s="140">
-        <v>76300</v>
+        <v>43600</v>
       </c>
       <c r="G10" s="149">
-        <v>2019360000</v>
+        <v>926064000</v>
       </c>
       <c r="H10" s="148"/>
       <c r="I10" s="140"/>
@@ -8360,13 +8372,13 @@
       <c r="K10" s="140"/>
       <c r="L10" s="140">
         <f>F10-J10</f>
-        <v>76300</v>
+        <v>43600</v>
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="140"/>
       <c r="O10" s="140">
         <f>IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(Q10,O$1,"d")/360,0)</f>
-        <v>254.33333333333334</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="P10" s="140">
         <f>IF((LEFT(B10,4)="1015"),F10*R10*DATEDIF(Q10,Q$1,"d")/360,0)</f>
@@ -8382,7 +8394,7 @@
       <c r="S10" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="143"/>
+      <c r="T10" s="41"/>
     </row>
     <row r="11" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="135">
@@ -8390,20 +8402,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C11" s="137">
-        <v>42158</v>
+        <v>42234</v>
       </c>
       <c r="D11" s="137">
-        <v>42341</v>
+        <v>42418</v>
       </c>
       <c r="E11" s="138"/>
       <c r="F11" s="138">
-        <v>95000</v>
+        <v>52300</v>
       </c>
       <c r="G11" s="139">
-        <v>1737190000</v>
+        <v>1151700000</v>
       </c>
       <c r="H11" s="137"/>
       <c r="I11" s="138"/>
@@ -8411,13 +8423,13 @@
       <c r="K11" s="140"/>
       <c r="L11" s="140">
         <f>F11-J11</f>
-        <v>95000</v>
+        <v>52300</v>
       </c>
       <c r="M11" s="138"/>
       <c r="N11" s="138"/>
       <c r="O11" s="138">
         <f>IF((LEFT(B11,4)="1402"),F11*R11*DATEDIF(Q11,O$1,"d")/360,0)</f>
-        <v>316.66666666666669</v>
+        <v>174.33333333333334</v>
       </c>
       <c r="P11" s="138">
         <f>IF((LEFT(B11,4)="1015"),F11*R11*DATEDIF(Q11,Q$1,"d")/360,0)</f>
@@ -8431,30 +8443,30 @@
         <v>0.04</v>
       </c>
       <c r="S11" s="142" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="T11" s="33"/>
     </row>
-    <row r="12" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="135">
         <f>ROW()-9</f>
         <v>3</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C12" s="137">
-        <v>42181</v>
+        <v>42340</v>
       </c>
       <c r="D12" s="137">
-        <v>42364</v>
+        <v>42523</v>
       </c>
       <c r="E12" s="138"/>
       <c r="F12" s="138">
-        <v>43600</v>
+        <v>76300</v>
       </c>
       <c r="G12" s="139">
-        <v>926064000</v>
+        <v>2019360000</v>
       </c>
       <c r="H12" s="137"/>
       <c r="I12" s="138"/>
@@ -8462,13 +8474,13 @@
       <c r="K12" s="140"/>
       <c r="L12" s="140">
         <f>F12-J12</f>
-        <v>43600</v>
+        <v>76300</v>
       </c>
       <c r="M12" s="138"/>
       <c r="N12" s="138"/>
       <c r="O12" s="138">
         <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
-        <v>145.33333333333334</v>
+        <v>254.33333333333334</v>
       </c>
       <c r="P12" s="138">
         <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
@@ -8484,28 +8496,27 @@
       <c r="S12" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="41"/>
-    </row>
-    <row r="13" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+    </row>
+    <row r="13" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="135">
         <f>ROW()-9</f>
         <v>4</v>
       </c>
-      <c r="B13" s="147" t="s">
-        <v>63</v>
+      <c r="B13" s="136" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="137">
-        <v>42234</v>
+        <v>42346</v>
       </c>
       <c r="D13" s="137">
-        <v>42418</v>
+        <v>42529</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="138">
-        <v>52300</v>
+        <v>33000</v>
       </c>
       <c r="G13" s="139">
-        <v>1151700000</v>
+        <v>1737190000</v>
       </c>
       <c r="H13" s="137"/>
       <c r="I13" s="138"/>
@@ -8513,13 +8524,13 @@
       <c r="K13" s="140"/>
       <c r="L13" s="140">
         <f>F13-J13</f>
-        <v>52300</v>
+        <v>33000</v>
       </c>
       <c r="M13" s="138"/>
       <c r="N13" s="138"/>
       <c r="O13" s="138">
         <f>IF((LEFT(B13,4)="1402"),F13*R13*DATEDIF(Q13,O$1,"d")/360,0)</f>
-        <v>174.33333333333334</v>
+        <v>110</v>
       </c>
       <c r="P13" s="138">
         <f>IF((LEFT(B13,4)="1015"),F13*R13*DATEDIF(Q13,Q$1,"d")/360,0)</f>
@@ -8533,125 +8544,128 @@
         <v>0.04</v>
       </c>
       <c r="S13" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="33"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="152"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-    </row>
-    <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A14" s="135">
+        <f>ROW()-9</f>
+        <v>5</v>
+      </c>
+      <c r="B14" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="137">
+        <v>42346</v>
+      </c>
+      <c r="D14" s="137">
+        <v>42529</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138">
+        <v>62000</v>
+      </c>
+      <c r="G14" s="139">
+        <v>1737190000</v>
+      </c>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140">
+        <f>F14-J14</f>
+        <v>62000</v>
+      </c>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138">
+        <f>IF((LEFT(B14,4)="1402"),F14*R14*DATEDIF(Q14,O$1,"d")/360,0)</f>
+        <v>206.66666666666666</v>
+      </c>
+      <c r="P14" s="138">
+        <f>IF((LEFT(B14,4)="1015"),F14*R14*DATEDIF(Q14,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <v>42324</v>
+      </c>
+      <c r="R14" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S14" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="152"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="159"/>
+    </row>
+    <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66">
-        <f>SUM(F10:F14)</f>
+      <c r="B16" s="185"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66">
+        <f>SUM(F10:F15)</f>
         <v>267200</v>
       </c>
-      <c r="G15" s="65">
-        <f>SUM(G9:G12)</f>
-        <v>4682614000</v>
-      </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66">
-        <f>SUM(J10:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66">
-        <f>SUM(L10:L14)</f>
+      <c r="G16" s="65">
+        <f>SUM(G9:G13)</f>
+        <v>5834314000</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66">
+        <f>SUM(J10:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66">
+        <f>SUM(L10:L15)</f>
         <v>267200</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65">
-        <f>SUM(N9:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="66">
-        <f>SUM(O10:O14)</f>
-        <v>890.66666666666674</v>
-      </c>
-      <c r="P15" s="66">
-        <f>SUM(P10:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="68"/>
-    </row>
-    <row r="16" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="83">
-        <f t="shared" ref="A16:A25" si="1">ROW()-15</f>
-        <v>1</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="30">
-        <v>42156</v>
-      </c>
-      <c r="D16" s="30">
-        <v>42339</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23">
-        <v>89500</v>
-      </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="81">
-        <f t="shared" ref="L16:L25" si="2">F16-J16</f>
-        <v>89500</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23">
-        <f t="shared" ref="O16:O25" si="3">IF((LEFT(B16,4)="1402"),F16*R16*DATEDIF(Q16,O$1,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="26">
-        <f t="shared" ref="P16:P25" si="4">IF((LEFT(B16,4)="1015"),F16*R16*DATEDIF(Q16,Q$1,"d")/360,0)</f>
-        <v>298.33333333333331</v>
-      </c>
-      <c r="Q16" s="44">
-        <f t="shared" ref="Q16:Q22" si="5">DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
-        <v>42326</v>
-      </c>
-      <c r="R16" s="46">
-        <v>0.04</v>
-      </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="41"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65">
+        <f>SUM(N9:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="66">
+        <f>SUM(O10:O15)</f>
+        <v>890.66666666666663</v>
+      </c>
+      <c r="P16" s="66">
+        <f>SUM(P10:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="68"/>
     </row>
     <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>2</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -8675,21 +8689,21 @@
       <c r="J17" s="26"/>
       <c r="K17" s="85"/>
       <c r="L17" s="81">
-        <f t="shared" si="2"/>
+        <f>F17-J17</f>
         <v>70000</v>
       </c>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
         <v>233.33333333333334</v>
       </c>
       <c r="Q17" s="44">
-        <f t="shared" si="5"/>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R17" s="46">
@@ -8702,7 +8716,7 @@
     </row>
     <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>3</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -8726,21 +8740,21 @@
       <c r="J18" s="26"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81">
-        <f t="shared" si="2"/>
+        <f>F18-J18</f>
         <v>21000</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P18" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
         <v>70</v>
       </c>
       <c r="Q18" s="44">
-        <f t="shared" si="5"/>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R18" s="46">
@@ -8750,9 +8764,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+    <row r="19" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>4</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -8776,21 +8790,21 @@
       <c r="J19" s="26"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81">
-        <f t="shared" si="2"/>
+        <f>F19-J19</f>
         <v>97000</v>
       </c>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P19" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
         <v>323.33333333333331</v>
       </c>
       <c r="Q19" s="44">
-        <f t="shared" si="5"/>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R19" s="46">
@@ -8799,11 +8813,10 @@
       <c r="S19" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="T19" s="33"/>
-    </row>
-    <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+    </row>
+    <row r="20" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>5</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -8827,21 +8840,21 @@
       <c r="J20" s="23"/>
       <c r="K20" s="81"/>
       <c r="L20" s="81">
-        <f t="shared" si="2"/>
+        <f>F20-J20</f>
         <v>82000</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P20" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
         <v>273.33333333333331</v>
       </c>
       <c r="Q20" s="44">
-        <f t="shared" si="5"/>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R20" s="46">
@@ -8854,7 +8867,7 @@
     </row>
     <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>6</v>
       </c>
       <c r="B21" s="50" t="s">
@@ -8878,21 +8891,21 @@
       <c r="J21" s="23"/>
       <c r="K21" s="81"/>
       <c r="L21" s="81">
-        <f t="shared" si="2"/>
+        <f>F21-J21</f>
         <v>40000</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P21" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
         <v>133.33333333333334</v>
       </c>
       <c r="Q21" s="44">
-        <f t="shared" si="5"/>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R21" s="46">
@@ -8903,9 +8916,9 @@
       </c>
       <c r="T21" s="33"/>
     </row>
-    <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+    <row r="22" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>7</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -8929,21 +8942,21 @@
       <c r="J22" s="23"/>
       <c r="K22" s="81"/>
       <c r="L22" s="81">
-        <f t="shared" si="2"/>
+        <f>F22-J22</f>
         <v>50000</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
         <v>166.66666666666666</v>
       </c>
       <c r="Q22" s="44">
-        <f t="shared" si="5"/>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42326</v>
       </c>
       <c r="R22" s="46">
@@ -8954,9 +8967,9 @@
       </c>
       <c r="T22" s="33"/>
     </row>
-    <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>8</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -8980,17 +8993,17 @@
       <c r="J23" s="23"/>
       <c r="K23" s="85"/>
       <c r="L23" s="81">
-        <f t="shared" si="2"/>
+        <f>F23-J23</f>
         <v>89500</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
         <v>775.66666666666663</v>
       </c>
       <c r="Q23" s="44">
@@ -9002,11 +9015,10 @@
       <c r="S23" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="T23" s="143"/>
     </row>
     <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>9</v>
       </c>
       <c r="B24" s="49" t="s">
@@ -9028,17 +9040,17 @@
       <c r="J24" s="23"/>
       <c r="K24" s="85"/>
       <c r="L24" s="81">
-        <f t="shared" si="2"/>
+        <f>F24-J24</f>
         <v>89000</v>
       </c>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
         <v>761.44444444444446</v>
       </c>
       <c r="Q24" s="44">
@@ -9052,39 +9064,39 @@
     </row>
     <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="83">
-        <f t="shared" si="1"/>
+        <f>ROW()-15</f>
         <v>10</v>
       </c>
       <c r="B25" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="30">
         <v>42328</v>
       </c>
       <c r="D25" s="30">
         <v>42602</v>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23">
         <v>61000</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="85"/>
       <c r="L25" s="81">
-        <f t="shared" si="2"/>
+        <f>F25-J25</f>
         <v>61000</v>
       </c>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="23">
-        <f t="shared" si="3"/>
+        <f>IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(Q25,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" si="4"/>
+        <f>IF((LEFT(B25,4)="1015"),F25*R25*DATEDIF(Q25,Q$1,"d")/360,0)</f>
         <v>189.77777777777777</v>
       </c>
       <c r="Q25" s="44">
@@ -9097,180 +9109,169 @@
       <c r="T25" s="41"/>
     </row>
     <row r="26" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="107"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="110"/>
-    </row>
-    <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="A26" s="83">
+        <f>ROW()-15</f>
+        <v>11</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="88">
+        <v>42339</v>
+      </c>
+      <c r="D26" s="30">
+        <v>42614</v>
+      </c>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89">
+        <v>89000</v>
+      </c>
+      <c r="G26" s="91"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="81">
+        <f>F26-J26</f>
+        <v>89000</v>
+      </c>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="23">
+        <f>IF((LEFT(B26,4)="1402"),F26*R26*DATEDIF(Q26,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="26">
+        <f>IF((LEFT(B26,4)="1015"),F26*R26*DATEDIF(Q26,Q$1,"d")/360,0)</f>
+        <v>168.11111111111111</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>42339</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S26" s="37"/>
+      <c r="T26" s="41"/>
+    </row>
+    <row r="27" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="107"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="110"/>
+    </row>
+    <row r="28" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="66">
-        <f>SUM(E10:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="66">
-        <f>SUM(F16:F26)</f>
-        <v>689000</v>
-      </c>
-      <c r="G27" s="65">
-        <f>SUM(G10:G24)</f>
-        <v>24296790080</v>
-      </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="66">
-        <f>SUM(I16:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="66">
-        <f>SUM(J16:J26)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="66">
-        <f>SUM(K16:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="66">
-        <f>SUM(L16:L26)</f>
-        <v>689000</v>
-      </c>
-      <c r="M27" s="66">
-        <f>SUM(M10:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66">
-        <f>SUM(O16:O26)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="66">
-        <f>SUM(P16:P26)</f>
-        <v>3225.2222222222222</v>
-      </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="68"/>
-    </row>
-    <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="83">
-        <f t="shared" ref="A28:A41" si="6">ROW()-25</f>
-        <v>3</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="31">
-        <v>41870</v>
-      </c>
-      <c r="D28" s="31">
-        <v>46253</v>
-      </c>
-      <c r="E28" s="29">
-        <v>1000000000</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29">
-        <v>1151700000</v>
-      </c>
-      <c r="H28" s="31">
-        <v>42632</v>
-      </c>
-      <c r="I28" s="29">
-        <v>8340000</v>
-      </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29">
-        <f t="shared" ref="K28:K41" si="7">E28-I28</f>
-        <v>991660000</v>
-      </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29">
-        <f t="shared" ref="M28:M41" si="8">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
-        <v>7916666.666666667</v>
-      </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28">
-        <f t="shared" ref="O28:O41" si="9">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="27">
-        <f t="shared" ref="P28:P41" si="10">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="63">
-        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
-        <v>42327</v>
-      </c>
-      <c r="R28" s="47">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S28" s="98" t="s">
-        <v>41</v>
-      </c>
+      <c r="B28" s="184"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="66">
+        <f>SUM(E10:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="66">
+        <f>SUM(F17:F27)</f>
+        <v>688500</v>
+      </c>
+      <c r="G28" s="65">
+        <f>SUM(G10:G25)</f>
+        <v>27185680080</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="66">
+        <f>SUM(I17:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="66">
+        <f>SUM(J17:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="66">
+        <f>SUM(K17:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="66">
+        <f>SUM(L17:L27)</f>
+        <v>688500</v>
+      </c>
+      <c r="M28" s="66">
+        <f>SUM(M10:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66">
+        <f>SUM(O17:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="66">
+        <f>SUM(P17:P27)</f>
+        <v>3095</v>
+      </c>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A29:A42" si="1">ROW()-25</f>
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="31">
-        <v>41905</v>
+        <v>41870</v>
       </c>
       <c r="D29" s="31">
         <v>46253</v>
       </c>
       <c r="E29" s="29">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="29">
-        <v>1894165000</v>
+        <v>1151700000</v>
       </c>
       <c r="H29" s="31">
         <v>42632</v>
       </c>
       <c r="I29" s="29">
-        <v>16670000</v>
+        <v>8340000</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="29">
-        <f t="shared" si="7"/>
-        <v>1983330000</v>
+        <f t="shared" ref="K29:K42" si="2">E29-I29</f>
+        <v>991660000</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29">
-        <f t="shared" si="8"/>
-        <v>15833333.333333334</v>
-      </c>
-      <c r="N29" s="28"/>
+        <f t="shared" ref="M29:M42" si="3">IF((LEFT(B29,4)="1402"),E29*R29*DATEDIF(Q29,$M$1,"d")/360,0)</f>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N29" s="27"/>
       <c r="O29" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O29:O42" si="4">IF((LEFT(B29,4)="1402"),F29*R29*DATEDIF(Q29,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="P29:P42" si="5">IF((LEFT(B29,4)="1015"),F29*R29*DATEDIF(Q29,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
@@ -9280,52 +9281,54 @@
       <c r="R29" s="47">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S29" s="100" t="s">
+      <c r="S29" s="98" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="101">
-        <v>41934</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="31">
+        <v>41905</v>
       </c>
       <c r="D30" s="31">
         <v>46253</v>
       </c>
-      <c r="E30" s="102">
-        <v>1600000000</v>
-      </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="29">
+        <v>2000000000</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29">
+        <v>1894165000</v>
+      </c>
       <c r="H30" s="31">
         <v>42632</v>
       </c>
-      <c r="I30" s="102">
-        <v>13340000</v>
-      </c>
-      <c r="J30" s="103"/>
+      <c r="I30" s="29">
+        <v>16670000</v>
+      </c>
+      <c r="J30" s="28"/>
       <c r="K30" s="29">
-        <f t="shared" si="7"/>
-        <v>1586660000</v>
-      </c>
-      <c r="L30" s="103"/>
+        <f t="shared" si="2"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L30" s="28"/>
       <c r="M30" s="29">
-        <f t="shared" si="8"/>
-        <v>12666666.666666666</v>
-      </c>
-      <c r="N30" s="103"/>
+        <f t="shared" si="3"/>
+        <v>15833333.333333334</v>
+      </c>
+      <c r="N30" s="28"/>
       <c r="O30" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="63">
@@ -9341,20 +9344,20 @@
     </row>
     <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C31" s="101">
-        <v>41963</v>
+        <v>41934</v>
       </c>
       <c r="D31" s="31">
         <v>46253</v>
       </c>
       <c r="E31" s="102">
-        <v>1500000000</v>
+        <v>1600000000</v>
       </c>
       <c r="F31" s="103"/>
       <c r="G31" s="102"/>
@@ -9362,29 +9365,29 @@
         <v>42632</v>
       </c>
       <c r="I31" s="102">
-        <v>12500000</v>
+        <v>13340000</v>
       </c>
       <c r="J31" s="103"/>
       <c r="K31" s="29">
-        <f t="shared" si="7"/>
-        <v>1487500000</v>
+        <f t="shared" si="2"/>
+        <v>1586660000</v>
       </c>
       <c r="L31" s="103"/>
       <c r="M31" s="29">
-        <f t="shared" si="8"/>
-        <v>11875000</v>
+        <f t="shared" si="3"/>
+        <v>12666666.666666666</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f t="shared" ref="Q31:Q41" si="11">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42327</v>
       </c>
       <c r="R31" s="47">
@@ -9396,20 +9399,20 @@
     </row>
     <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C32" s="101">
-        <v>41984</v>
+        <v>41963</v>
       </c>
       <c r="D32" s="31">
         <v>46253</v>
       </c>
       <c r="E32" s="102">
-        <v>1000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F32" s="103"/>
       <c r="G32" s="102"/>
@@ -9417,29 +9420,29 @@
         <v>42632</v>
       </c>
       <c r="I32" s="102">
-        <v>8330000</v>
+        <v>12500000</v>
       </c>
       <c r="J32" s="103"/>
-      <c r="K32" s="102">
-        <f t="shared" si="7"/>
-        <v>991670000</v>
+      <c r="K32" s="29">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
       </c>
       <c r="L32" s="103"/>
       <c r="M32" s="29">
-        <f t="shared" si="8"/>
-        <v>7916666.666666667</v>
+        <f t="shared" si="3"/>
+        <v>11875000</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Q32:Q42" si="6">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/15")</f>
         <v>42327</v>
       </c>
       <c r="R32" s="47">
@@ -9451,50 +9454,50 @@
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="101">
-        <v>42033</v>
+        <v>41984</v>
       </c>
       <c r="D33" s="31">
         <v>46253</v>
       </c>
       <c r="E33" s="102">
-        <v>1500000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F33" s="103"/>
       <c r="G33" s="102"/>
-      <c r="H33" s="101">
+      <c r="H33" s="31">
         <v>42632</v>
       </c>
       <c r="I33" s="102">
-        <v>12500000</v>
+        <v>8330000</v>
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="102">
-        <f t="shared" si="7"/>
-        <v>1487500000</v>
+        <f t="shared" si="2"/>
+        <v>991670000</v>
       </c>
       <c r="L33" s="103"/>
       <c r="M33" s="29">
-        <f t="shared" si="8"/>
-        <v>11875000</v>
+        <f t="shared" si="3"/>
+        <v>7916666.666666667</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R33" s="47">
@@ -9506,50 +9509,50 @@
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C34" s="101">
-        <v>42088</v>
+        <v>42033</v>
       </c>
       <c r="D34" s="31">
         <v>46253</v>
       </c>
       <c r="E34" s="102">
-        <v>2000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F34" s="103"/>
       <c r="G34" s="102"/>
-      <c r="H34" s="31">
+      <c r="H34" s="101">
         <v>42632</v>
       </c>
       <c r="I34" s="102">
-        <v>16670000</v>
+        <v>12500000</v>
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="102">
-        <f t="shared" si="7"/>
-        <v>1983330000</v>
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
       </c>
       <c r="L34" s="103"/>
       <c r="M34" s="29">
-        <f t="shared" si="8"/>
-        <v>15833333.333333334</v>
+        <f t="shared" si="3"/>
+        <v>11875000</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q34" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R34" s="47">
@@ -9561,50 +9564,50 @@
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35" s="101">
-        <v>42114</v>
+        <v>42088</v>
       </c>
       <c r="D35" s="31">
         <v>46253</v>
       </c>
       <c r="E35" s="102">
-        <v>1400000000</v>
+        <v>2000000000</v>
       </c>
       <c r="F35" s="103"/>
       <c r="G35" s="102"/>
-      <c r="H35" s="101">
+      <c r="H35" s="31">
         <v>42632</v>
       </c>
       <c r="I35" s="102">
-        <v>11670000</v>
+        <v>16670000</v>
       </c>
       <c r="J35" s="103"/>
       <c r="K35" s="102">
-        <f t="shared" si="7"/>
-        <v>1388330000</v>
+        <f t="shared" si="2"/>
+        <v>1983330000</v>
       </c>
       <c r="L35" s="103"/>
       <c r="M35" s="29">
-        <f t="shared" si="8"/>
-        <v>11083333.333333334</v>
+        <f t="shared" si="3"/>
+        <v>15833333.333333334</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P35" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R35" s="47">
@@ -9616,20 +9619,20 @@
     </row>
     <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="101">
-        <v>42138</v>
+        <v>42114</v>
       </c>
       <c r="D36" s="31">
         <v>46253</v>
       </c>
       <c r="E36" s="102">
-        <v>1500000000</v>
+        <v>1400000000</v>
       </c>
       <c r="F36" s="103"/>
       <c r="G36" s="102"/>
@@ -9637,29 +9640,29 @@
         <v>42632</v>
       </c>
       <c r="I36" s="102">
-        <v>12500000</v>
+        <v>11670000</v>
       </c>
       <c r="J36" s="103"/>
       <c r="K36" s="102">
-        <f t="shared" si="7"/>
-        <v>1487500000</v>
+        <f t="shared" si="2"/>
+        <v>1388330000</v>
       </c>
       <c r="L36" s="103"/>
       <c r="M36" s="29">
-        <f t="shared" si="8"/>
-        <v>11875000</v>
+        <f t="shared" si="3"/>
+        <v>11083333.333333334</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R36" s="47">
@@ -9671,14 +9674,14 @@
     </row>
     <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C37" s="101">
-        <v>42164</v>
+        <v>42138</v>
       </c>
       <c r="D37" s="31">
         <v>46253</v>
@@ -9696,25 +9699,25 @@
       </c>
       <c r="J37" s="103"/>
       <c r="K37" s="102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1487500000</v>
       </c>
       <c r="L37" s="103"/>
       <c r="M37" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11875000</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q37" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R37" s="47">
@@ -9726,14 +9729,14 @@
     </row>
     <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C38" s="101">
-        <v>42187</v>
+        <v>42164</v>
       </c>
       <c r="D38" s="31">
         <v>46253</v>
@@ -9751,25 +9754,25 @@
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1487500000</v>
       </c>
       <c r="L38" s="103"/>
       <c r="M38" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11875000</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P38" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R38" s="47">
@@ -9781,14 +9784,14 @@
     </row>
     <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" s="101">
-        <v>42195</v>
+        <v>42187</v>
       </c>
       <c r="D39" s="31">
         <v>46253</v>
@@ -9806,25 +9809,25 @@
       </c>
       <c r="J39" s="103"/>
       <c r="K39" s="102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1487500000</v>
       </c>
       <c r="L39" s="103"/>
       <c r="M39" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>11875000</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P39" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R39" s="47">
@@ -9836,20 +9839,20 @@
     </row>
     <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="101">
-        <v>42215</v>
+        <v>42195</v>
       </c>
       <c r="D40" s="31">
         <v>46253</v>
       </c>
       <c r="E40" s="102">
-        <v>1000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F40" s="103"/>
       <c r="G40" s="102"/>
@@ -9857,29 +9860,29 @@
         <v>42632</v>
       </c>
       <c r="I40" s="102">
-        <v>8330000</v>
+        <v>12500000</v>
       </c>
       <c r="J40" s="103"/>
       <c r="K40" s="102">
-        <f t="shared" si="7"/>
-        <v>991670000</v>
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
       </c>
       <c r="L40" s="103"/>
       <c r="M40" s="29">
-        <f t="shared" si="8"/>
-        <v>7916666.666666667</v>
+        <f t="shared" si="3"/>
+        <v>11875000</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q40" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R40" s="47">
@@ -9891,14 +9894,14 @@
     </row>
     <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="101">
-        <v>42229</v>
+        <v>42215</v>
       </c>
       <c r="D41" s="31">
         <v>46253</v>
@@ -9916,25 +9919,25 @@
       </c>
       <c r="J41" s="103"/>
       <c r="K41" s="102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>991670000</v>
       </c>
       <c r="L41" s="103"/>
       <c r="M41" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>7916666.666666667</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P41" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q41" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>42327</v>
       </c>
       <c r="R41" s="47">
@@ -9944,88 +9947,140 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="55"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="179" t="s">
+    <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="83">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="101">
+        <v>42229</v>
+      </c>
+      <c r="D42" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E42" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F42" s="103"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I42" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J42" s="103"/>
+      <c r="K42" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L42" s="103"/>
+      <c r="M42" s="29">
+        <f t="shared" si="3"/>
+        <v>7916666.666666667</v>
+      </c>
+      <c r="N42" s="103"/>
+      <c r="O42" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="63">
+        <f t="shared" si="6"/>
+        <v>42327</v>
+      </c>
+      <c r="R42" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S42" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="55"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A44" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="65">
-        <f>SUM(E28:E42)</f>
+      <c r="B44" s="184"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="65">
+        <f>SUM(E29:E43)</f>
         <v>20000000000</v>
       </c>
-      <c r="F43" s="66">
-        <f>SUM(F28:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="65">
-        <f>SUM(G28:G42)</f>
+      <c r="F44" s="66">
+        <f>SUM(F29:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="65">
+        <f>SUM(G29:G43)</f>
         <v>3045865000</v>
       </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="65">
-        <f t="shared" ref="I43:P43" si="12">SUM(I28:I42)</f>
+      <c r="H44" s="66"/>
+      <c r="I44" s="65">
+        <f t="shared" ref="I44:P44" si="7">SUM(I29:I43)</f>
         <v>166680000</v>
       </c>
-      <c r="J43" s="66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="65">
-        <f t="shared" si="12"/>
+      <c r="J44" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="65">
+        <f t="shared" si="7"/>
         <v>19833320000</v>
       </c>
-      <c r="L43" s="66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="65">
-        <f t="shared" si="12"/>
+      <c r="L44" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="65">
+        <f t="shared" si="7"/>
         <v>158333333.33333331</v>
       </c>
-      <c r="N43" s="66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="68"/>
-    </row>
-    <row r="44" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F44" s="8"/>
+      <c r="N44" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="68"/>
     </row>
     <row r="45" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F45" s="2"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:19" ht="17.25" customHeight="1">
       <c r="F46" s="2"/>
@@ -10033,42 +10088,45 @@
     <row r="47" spans="1:19" ht="17.25" customHeight="1">
       <c r="F47" s="2"/>
     </row>
-    <row r="49" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F49" s="8"/>
-    </row>
-    <row r="57" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="3"/>
+    <row r="48" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="58" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:S27"/>
-  <sortState ref="A16:T26">
-    <sortCondition ref="C16:C26"/>
+  <autoFilter ref="A3:S28"/>
+  <sortState ref="A10:T14">
+    <sortCondition ref="C10:C14"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
@@ -10152,47 +10210,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -10238,8 +10296,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -10470,10 +10528,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -11201,10 +11259,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="179"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -11544,10 +11602,10 @@
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="179"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="69"/>
       <c r="D32" s="69"/>
       <c r="E32" s="65">
@@ -11622,6 +11680,11 @@
   </sheetData>
   <autoFilter ref="A3:S25"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -11629,11 +11692,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -11708,47 +11766,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -11794,8 +11852,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -12026,10 +12084,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -12712,10 +12770,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="179"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -13159,10 +13217,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="179"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -13237,11 +13295,6 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
@@ -13249,6 +13302,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -13323,47 +13381,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -13409,8 +13467,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -13641,10 +13699,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -14329,10 +14387,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="179"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -14778,10 +14836,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="179"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -14856,18 +14914,18 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -14942,47 +15000,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -15028,8 +15086,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -15260,10 +15318,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -15950,10 +16008,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="179"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -16499,10 +16557,10 @@
       <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="179"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="65">
@@ -16577,6 +16635,11 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -16584,11 +16647,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.18" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -16663,47 +16721,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -16749,8 +16807,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -16985,10 +17043,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -17244,10 +17302,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -17697,10 +17755,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="179"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -18319,10 +18377,10 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="179"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="65">
@@ -18416,11 +18474,6 @@
     <sortCondition ref="C10:C13"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -18429,6 +18482,11 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18502,47 +18560,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -18588,8 +18646,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -18824,10 +18882,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -19090,10 +19148,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -19550,10 +19608,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="179"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -20228,10 +20286,10 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="179"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="65">
@@ -20411,47 +20469,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -20497,8 +20555,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -20733,10 +20791,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -21001,10 +21059,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -21461,10 +21519,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="179"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -22299,10 +22357,10 @@
       <c r="S40" s="37"/>
     </row>
     <row r="41" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="179" t="s">
+      <c r="A41" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="179"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="65">
@@ -22482,47 +22540,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182" t="s">
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="179" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -22568,8 +22626,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="182"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="179"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -22801,10 +22859,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="180"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -23066,10 +23124,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="180" t="s">
+      <c r="A15" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -23569,10 +23627,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="179"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -24415,10 +24473,10 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="179"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="65">
